--- a/실무_엑셀_예제_파일/Chapter02/02-013.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-013.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB7CB1A-B8E3-4AB5-A163-56C45C6FE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E34942-29EA-475D-964F-D85A37408822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22680" windowHeight="14736" xr2:uid="{AC767EA5-D66A-4A4E-AEEF-A41F0225A65B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{AC767EA5-D66A-4A4E-AEEF-A41F0225A65B}"/>
   </bookViews>
   <sheets>
     <sheet name="마케팅키워드" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -64,14 +55,14 @@
     <t>요즘 시대에 가장 획기적인 키워드는 무엇일까요.</t>
   </si>
   <si>
-    <t>우리 마케팅팀은 지금의 암울한 경기를 회복하고 매출을 증진하기 위한 핵심 키워드를 고려해봐야 할 것입니다.</t>
+    <t>우리 마케팅팀은 지금의 암울한 경기를 회복하고 매출을 증진하기 위한 핵심 키워드를 고려해봐야 할 것입니다</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +80,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -134,8 +132,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,58 +449,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617B889E-C2C2-4B71-A61C-4FD24C62E1B7}">
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" customWidth="1"/>
-    <col min="2" max="2" width="92.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="2" max="2" width="92.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:2" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
